--- a/testData/ContactModule.xlsx
+++ b/testData/ContactModule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -159,6 +159,90 @@
   </si>
   <si>
     <t>TC_61</t>
+  </si>
+  <si>
+    <t>TC-62</t>
+  </si>
+  <si>
+    <t>selectSalutionFromDropDown</t>
+  </si>
+  <si>
+    <t>SalutationDropdownList</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>TC-63</t>
+  </si>
+  <si>
+    <t>EnterBirthDateSameAsCurrentDate</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>Birthdate should be less than Current Date</t>
+  </si>
+  <si>
+    <t>TC-64</t>
+  </si>
+  <si>
+    <t>CreateNewGroupInSettings</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>Bank Manager</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>Group::Team Selling</t>
+  </si>
+  <si>
+    <t>Group viewing page should be displayed</t>
+  </si>
+  <si>
+    <t>CreateNewCurrency</t>
+  </si>
+  <si>
+    <t>Currency Name</t>
+  </si>
+  <si>
+    <t>Conversion Rate</t>
+  </si>
+  <si>
+    <t>Currency Viewing page shoul be displayed</t>
+  </si>
+  <si>
+    <t>Albania, Leke(Lek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 </t>
+  </si>
+  <si>
+    <t>TC-65</t>
+  </si>
+  <si>
+    <t>TC-66</t>
+  </si>
+  <si>
+    <t>CreateNewRole</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>salesman</t>
+  </si>
+  <si>
+    <t>Role Viewing page shoul be displayed</t>
   </si>
 </sst>
 </file>
@@ -197,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +318,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,6 +368,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +428,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -307,16 +449,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +849,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
@@ -771,10 +926,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
@@ -822,10 +977,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
@@ -899,10 +1054,10 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="10" t="s">
         <v>12</v>
       </c>
@@ -932,10 +1087,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="10" t="s">
         <v>24</v>
       </c>
@@ -965,10 +1120,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1029,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,62 +1234,174 @@
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="14"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="14"/>
     </row>
@@ -1158,8 +1425,8 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="16"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1184,8 +1451,8 @@
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="16"/>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1206,8 +1473,8 @@
       <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="16"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1229,8 +1496,8 @@
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="16"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1249,8 +1516,8 @@
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="16"/>
       <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1274,13 +1541,13 @@
       <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="17"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="16"/>
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E91" s="14"/>
@@ -1296,48 +1563,48 @@
       <c r="E95" s="15"/>
     </row>
     <row r="96" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="17"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="16"/>
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="19"/>
-    </row>
-    <row r="102" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="19"/>
+    <row r="101" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="18"/>
+    </row>
+    <row r="102" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="C103" s="18"/>
+      <c r="A103" s="17"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="104" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="18"/>
+      <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="18"/>
+      <c r="C105" s="17"/>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="18"/>
+      <c r="C106" s="17"/>
     </row>
     <row r="107" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="18"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="18"/>
+      <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="18"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="18"/>
+      <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="18"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
@@ -1347,8 +1614,8 @@
       <c r="E112" s="15"/>
     </row>
     <row r="113" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="20"/>
-      <c r="B113" s="17"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="16"/>
       <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1356,45 +1623,45 @@
     <row r="116" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="19"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="19"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="18"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="18"/>
+      <c r="C121" s="17"/>
     </row>
     <row r="122" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="18"/>
+      <c r="C122" s="17"/>
       <c r="E122" s="14"/>
     </row>
     <row r="123" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="18"/>
+      <c r="C123" s="17"/>
     </row>
     <row r="124" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="18"/>
+      <c r="C124" s="17"/>
     </row>
     <row r="125" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="18"/>
+      <c r="C125" s="17"/>
     </row>
     <row r="126" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="18"/>
+      <c r="C126" s="17"/>
     </row>
     <row r="127" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="18"/>
+      <c r="C127" s="17"/>
     </row>
     <row r="128" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="18"/>
+      <c r="C128" s="17"/>
     </row>
     <row r="129" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="18"/>
+      <c r="C129" s="17"/>
     </row>
     <row r="130" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15"/>
@@ -1404,10 +1671,18 @@
       <c r="E130" s="15"/>
     </row>
     <row r="131" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1594,10 +1869,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="10" t="s">
         <v>34</v>
       </c>
@@ -1631,10 +1906,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="10" t="s">
         <v>40</v>
       </c>

--- a/testData/ContactModule.xlsx
+++ b/testData/ContactModule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -243,6 +243,36 @@
   </si>
   <si>
     <t>Role Viewing page shoul be displayed</t>
+  </si>
+  <si>
+    <t>CreateNewUser</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>saigun</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Anupamas1195@gmail.com</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Users Viewing page shoul be displayed</t>
   </si>
 </sst>
 </file>
@@ -325,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -420,6 +450,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -428,7 +469,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -474,6 +515,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1184,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,84 +1445,144 @@
       </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="14"/>
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="14"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="14"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="14"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="13"/>
+    </row>
     <row r="29" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="14"/>
-    </row>
+    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
-      <c r="D36" s="13"/>
-    </row>
+    <row r="34" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="D40" s="13"/>
+    </row>
     <row r="41" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="16"/>
-      <c r="D48" s="13"/>
-    </row>
+    <row r="47" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="16"/>
+      <c r="D52" s="13"/>
+    </row>
     <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1488,42 +1590,42 @@
     <row r="57" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="16"/>
-      <c r="D61" s="13"/>
-    </row>
+    <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="16"/>
+      <c r="D65" s="13"/>
+    </row>
     <row r="66" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="16"/>
-      <c r="D71" s="13"/>
-    </row>
+    <row r="70" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="D75" s="13"/>
+    </row>
     <row r="76" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1533,65 +1635,56 @@
     <row r="82" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="16"/>
-      <c r="D86" s="13"/>
-    </row>
+    <row r="85" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="14"/>
-    </row>
+    <row r="89" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="16"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="16"/>
-      <c r="D96" s="13"/>
-    </row>
+    <row r="95" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="18"/>
-    </row>
-    <row r="102" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="18"/>
-    </row>
-    <row r="103" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="C103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="17"/>
-      <c r="E105" s="14"/>
-    </row>
-    <row r="106" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="17"/>
+    <row r="99" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="19"/>
+      <c r="B100" s="16"/>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="18"/>
+    </row>
+    <row r="106" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="18"/>
     </row>
     <row r="107" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
       <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1599,6 +1692,7 @@
     </row>
     <row r="109" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="17"/>
+      <c r="E109" s="14"/>
     </row>
     <row r="110" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="17"/>
@@ -1606,44 +1700,43 @@
     <row r="111" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-    </row>
-    <row r="113" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="16"/>
-      <c r="D113" s="13"/>
-    </row>
-    <row r="114" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="18"/>
-    </row>
-    <row r="119" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
-    </row>
-    <row r="120" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="17"/>
-    </row>
-    <row r="121" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="17"/>
-    </row>
+    <row r="112" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="19"/>
+      <c r="B117" s="16"/>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C122" s="17"/>
-      <c r="E122" s="14"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C124" s="17"/>
@@ -1653,6 +1746,7 @@
     </row>
     <row r="126" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C126" s="17"/>
+      <c r="E126" s="14"/>
     </row>
     <row r="127" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C127" s="17"/>
@@ -1663,20 +1757,34 @@
     <row r="129" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-    </row>
-    <row r="131" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+    </row>
     <row r="135" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:D6"/>
